--- a/papers.xlsx
+++ b/papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesDiffey\Desktop\Bei Bao (backpack)\Software Engineering Projects\academic-abstract-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B671FEA-6006-4C1F-B115-BB2D4CC02ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B017B22A-A8B4-486B-A105-E30EE09C9814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{8405F5BA-B391-4D67-A977-F5D5095B0D4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8405F5BA-B391-4D67-A977-F5D5095B0D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="urls" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC10585315/</t>
   </si>
@@ -54,6 +54,42 @@
   </si>
   <si>
     <t>URLS</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC10977893/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8446952/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC11336597/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC10558031/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6655584/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC10118127/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC11133169/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC10815757/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9761729/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6156563/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9324041/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC10463182/</t>
   </si>
 </sst>
 </file>
@@ -439,46 +475,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F5B257-490B-44A8-B885-A60CAB8B5F87}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -487,6 +585,10 @@
     <hyperlink ref="A4" r:id="rId3" xr:uid="{1F80BA56-E899-47E7-B09E-BF757D0AC9A2}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{24F9CE79-F5DF-468F-BCE0-0857725D5EA9}"/>
     <hyperlink ref="A6" r:id="rId5" xr:uid="{96887849-B391-42A8-BBEC-30D59CE54C10}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{0F632841-FF6F-4906-96E3-3E35B8B0AE5A}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{57C7E40D-FD77-4E03-ACDA-2D44234B0CD0}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{0158244B-015D-43FE-97B9-2D58715271D4}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{D061E19B-806B-4946-B714-C6A77C68EBCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
